--- a/index/sheet/indexpage.xlsx
+++ b/index/sheet/indexpage.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Angold4/WorkSpace/compass/index/sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC47B4E-DCE0-194F-8AEF-D98F8D46714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C1F818-C953-E647-9B60-9E8E16F57869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{726E7B9F-EC8B-8C44-AEF3-9823BC7CC1E0}"/>
+    <workbookView xWindow="6600" yWindow="3240" windowWidth="35320" windowHeight="25480" xr2:uid="{726E7B9F-EC8B-8C44-AEF3-9823BC7CC1E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="PortPerf" sheetId="1" r:id="rId1"/>
+    <sheet name="LeetCode Score Book" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -583,7 +583,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
